--- a/English/record.xlsx
+++ b/English/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23016" windowHeight="8532"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>TPO1</t>
   </si>
@@ -201,11 +201,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,10 +217,102 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -237,14 +329,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,112 +351,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,31 +373,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,127 +511,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,10 +561,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -592,6 +635,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,212 +658,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1229,9 +1222,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1274,15 +1270,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>21</v>
       </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
       <c r="H17" t="s">
         <v>6</v>
       </c>
@@ -1417,9 +1419,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1435,8 +1446,6 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45"/>
-      <c r="F45"/>
       <c r="G45" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1469,6 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46"/>
       <c r="F46" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1495,6 @@
       <c r="D47" t="s">
         <v>6</v>
       </c>
-      <c r="E47"/>
       <c r="F47" t="s">
         <v>6</v>
       </c>

--- a/English/record.xlsx
+++ b/English/record.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14828\Documents\GitHub\my_onepunch\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83591B-9752-40A7-93FB-4E699B44116E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23016" windowHeight="8532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>TPO1</t>
   </si>
@@ -198,14 +204,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,345 +214,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -560,251 +236,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,61 +247,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1154,21 +544,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1217,12 +607,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1230,55 +620,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1289,137 +688,137 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1433,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1456,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1508,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1537,37 +936,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1582,42 +981,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/English/record.xlsx
+++ b/English/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14828\Documents\GitHub\my_onepunch\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83591B-9752-40A7-93FB-4E699B44116E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57511242-C300-458B-830B-D6F6FAA892C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
   <si>
     <t>TPO1</t>
   </si>
@@ -199,13 +199,21 @@
   </si>
   <si>
     <t>TPO54</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +224,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -242,8 +258,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -624,11 +643,17 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -654,6 +679,9 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -692,21 +720,42 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -782,48 +831,120 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
+      <c r="G43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="G44" t="s">
-        <v>6</v>
+      <c r="G44" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H44" t="s">
         <v>6</v>
@@ -940,21 +1061,60 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -965,6 +1125,12 @@
       <c r="A54" t="s">
         <v>58</v>
       </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -983,7 +1149,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
